--- a/Slicepay/test-data/TestData.xlsx
+++ b/Slicepay/test-data/TestData.xlsx
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Unique Value</t>
-  </si>
-  <si>
-    <t>User Name</t>
   </si>
   <si>
     <t>Password</t>
@@ -30,10 +27,10 @@
     <t>Login001</t>
   </si>
   <si>
-    <t>sadhna@moolya.com</t>
+    <t>Phone Number</t>
   </si>
   <si>
-    <t>qwerty1234</t>
+    <t>Moolya_123</t>
   </si>
 </sst>
 </file>
@@ -368,7 +365,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -382,21 +379,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>7899179393</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Slicepay/test-data/TestData.xlsx
+++ b/Slicepay/test-data/TestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="SignUp" sheetId="5" r:id="rId1"/>
+    <sheet name="SignIn" sheetId="1" r:id="rId2"/>
+    <sheet name="Profile" sheetId="3" r:id="rId3"/>
+    <sheet name="SilverAccess" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>Unique Value</t>
   </si>
@@ -24,13 +25,172 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Login001</t>
-  </si>
-  <si>
     <t>Phone Number</t>
   </si>
   <si>
     <t>Moolya_123</t>
+  </si>
+  <si>
+    <t>UniqueValue</t>
+  </si>
+  <si>
+    <t>SignUp001</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Moolya Test1</t>
+  </si>
+  <si>
+    <t>demotwoqwerty@gmail.com</t>
+  </si>
+  <si>
+    <t>Credit Limit</t>
+  </si>
+  <si>
+    <t>Available Balance</t>
+  </si>
+  <si>
+    <t>CashBack</t>
+  </si>
+  <si>
+    <t>Pocket Limit</t>
+  </si>
+  <si>
+    <t>Pocket Balance</t>
+  </si>
+  <si>
+    <t>Have a campus manager code?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Manager Code</t>
+  </si>
+  <si>
+    <t>Orders001</t>
+  </si>
+  <si>
+    <t>moolya test1</t>
+  </si>
+  <si>
+    <t>FB email</t>
+  </si>
+  <si>
+    <t>demofourqwerty@gmail.com</t>
+  </si>
+  <si>
+    <t>FB Password</t>
+  </si>
+  <si>
+    <t>Qwerty@123</t>
+  </si>
+  <si>
+    <t>College Name</t>
+  </si>
+  <si>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>Graduation Month</t>
+  </si>
+  <si>
+    <t>Graduation Year</t>
+  </si>
+  <si>
+    <t>National College</t>
+  </si>
+  <si>
+    <t>BCA</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>Pan Aadhar?</t>
+  </si>
+  <si>
+    <t>Aadhar Number</t>
+  </si>
+  <si>
+    <t>Pan Aadhar Number</t>
+  </si>
+  <si>
+    <t>238224701980</t>
+  </si>
+  <si>
+    <t>Classmate Phone</t>
+  </si>
+  <si>
+    <t>Classmate Name</t>
+  </si>
+  <si>
+    <t>7899179124</t>
+  </si>
+  <si>
+    <t>Moolya Test2</t>
+  </si>
+  <si>
+    <t>Where You Stay</t>
+  </si>
+  <si>
+    <t>With parents</t>
+  </si>
+  <si>
+    <t>House Number</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>560050</t>
+  </si>
+  <si>
+    <t>Proof Document</t>
+  </si>
+  <si>
+    <t>Voter ID</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>1992</t>
   </si>
 </sst>
 </file>
@@ -66,8 +226,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,10 +523,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>7899179123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -379,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -387,13 +594,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>7899179393</v>
+        <v>7899179123</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -401,26 +608,235 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>7899179123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="27.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>